--- a/Excel Files/Logty.xlsx
+++ b/Excel Files/Logty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sami Bassoumi\Desktop\Projets\Logty\App\logty\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F4E118-9358-4ADF-982A-A929B99A124F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2598EE47-E48C-4749-9C90-2BFDAA13D2D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="258">
   <si>
     <t>Off block</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>ATPL(A) th.</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2670,7 @@
   <dimension ref="A1:DZ300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8969,7 +8972,7 @@
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="28" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="E45" s="28" t="s">
         <v>212</v>
@@ -9111,7 +9114,7 @@
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="28" t="s">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="E46" s="28" t="s">
         <v>215</v>
